--- a/empirical_experiment_material/Responses/Session 1 - Basic Questions (Responses).xlsx
+++ b/empirical_experiment_material/Responses/Session 1 - Basic Questions (Responses).xlsx
@@ -1,25 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lola\Desktop\Gits\beliefFusionPlugin\empirical_experiment_material\Responses\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE45DE8-6307-4269-9079-729132D9477F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Form Responses 1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="21">
   <si>
     <t>Timestamp</t>
   </si>
   <si>
-    <t>Email Address</t>
-  </si>
-  <si>
     <t>In the following object diagram, the instance "livingroom" contains the attribute temperature=UReal(24.0, 0.5). What is the meaning of this "UReal" value?</t>
   </si>
   <si>
@@ -44,9 +61,6 @@
     <t/>
   </si>
   <si>
-    <t>gapriser@gmail.com</t>
-  </si>
-  <si>
     <t>The temperature is 24 ºC with a confidence of 50%, meaning that we are not sure about it.</t>
   </si>
   <si>
@@ -62,67 +76,19 @@
     <t>Ada</t>
   </si>
   <si>
-    <t>laurapanizo@uma.es</t>
-  </si>
-  <si>
     <t>The temperature is 24.5 ºC with a standard deviation of 0.5 ºC</t>
   </si>
   <si>
-    <t>nmv@uma.es</t>
-  </si>
-  <si>
     <t>Bob</t>
   </si>
   <si>
-    <t>miggalrui@uma.es</t>
-  </si>
-  <si>
     <t>The temperature is between 24 and 24.5 ºC</t>
   </si>
   <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>mfernandez@uma.es</t>
-  </si>
-  <si>
     <t>The temperature is 24.0 ºC with a standard deviation of 0.5 ºC</t>
-  </si>
-  <si>
-    <t>rgarcialuque@lcc.uma.es</t>
-  </si>
-  <si>
-    <t>dbandera@lcc.uma.es</t>
-  </si>
-  <si>
-    <t>juanpalmaborda@uma.es</t>
-  </si>
-  <si>
-    <t>juliarobles1999@gmail.com</t>
-  </si>
-  <si>
-    <t>ebatot@uoc.edu</t>
-  </si>
-  <si>
-    <t>moriolh@uoc.edu</t>
-  </si>
-  <si>
-    <t>ialfonsod@uoc.edu</t>
-  </si>
-  <si>
-    <t>jginermi@uoc.edu</t>
-  </si>
-  <si>
-    <t>mgomezvazqu@uoc.edu</t>
-  </si>
-  <si>
-    <t>apvereda@uma.es</t>
-  </si>
-  <si>
-    <t>carloscanal@uma.es</t>
-  </si>
-  <si>
-    <t>mgm7cns@uma.es</t>
   </si>
   <si>
     <t># of correct answers</t>
@@ -134,17 +100,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -154,53 +121,52 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -390,29 +356,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="21.57"/>
-    <col customWidth="1" min="3" max="3" width="54.57"/>
-    <col customWidth="1" min="4" max="4" width="17.43"/>
-    <col customWidth="1" min="5" max="17" width="21.57"/>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="54.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="16" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -425,13 +394,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -441,345 +410,306 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>44509.736906956023</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3">
-        <v>44509.73690695602</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>44509.738598090276</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>44509.739967974536</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>44511.406315138884</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>15</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>44511.412155150465</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="H6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>44511.41275271991</v>
+        <v>44511.412752719909</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>12</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>44511.41286318287</v>
+        <v>44511.412863182872</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>15</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>44511.413084050924</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>15</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>44511.41391826389</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>15</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>44518.4532615162</v>
+        <v>44518.453261516202</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>15</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>44518.45813421297</v>
+        <v>44518.458134212968</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>15</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>44518.4583206713</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>12</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>44518.46135724537</v>
+        <v>44518.461357245367</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>13</v>
@@ -787,207 +717,193 @@
       <c r="F14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="H14" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>44518.46240636574</v>
+        <v>44518.462406365739</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>12</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>44526.50215752315</v>
+        <v>44526.502157523151</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>15</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>44526.50288811343</v>
+        <v>44526.502888113428</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>15</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>44526.50302474537</v>
+        <v>44526.503024745369</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.43"/>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="242.25" customHeight="1">
+    <row r="1" spans="1:8" ht="242.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="G1" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1">
-        <f>COUNTIF('Form Responses 1'!C5:C18,"The temperature is 24.0 ºC with a standard deviation of 0.5 ºC")</f>
+        <f>COUNTIF('Form Responses 1'!B5:B18,"The temperature is 24.0 ºC with a standard deviation of 0.5 ºC")</f>
         <v>13</v>
       </c>
       <c r="C2" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1">
-        <f>countif('Form Responses 1'!F5:F18, "Cam")</f>
+        <f>COUNTIF('Form Responses 1'!E5:E18, "Cam")</f>
         <v>12</v>
       </c>
       <c r="F2" s="1">
-        <f>countif('Form Responses 1'!G5:G18, "Bob")</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
+        <f>COUNTIF('Form Responses 1'!F5:F18, "Bob")</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1">
-        <f t="shared" ref="B3:F3" si="1">14-B2</f>
+        <f t="shared" ref="B3:F3" si="0">14-B2</f>
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>